--- a/data/Pencahue.xlsx
+++ b/data/Pencahue.xlsx
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla Colchagua y Maule S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">

--- a/data/Pencahue.xlsx
+++ b/data/Pencahue.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pencahue.xlsx
+++ b/data/Pencahue.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA.</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA.</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F11" t="n">

--- a/data/Pencahue.xlsx
+++ b/data/Pencahue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse El Almendro</t>
+          <t>Ampliacion de la capacidad planta de 5000 a 10000 toneladas/mes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Agricola Cunculen Limitada</t>
+          <t>Fernando Rodrigo Gattas Beher</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>500</v>
+        <v>3873</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/09/2021</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153175038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>22/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151890153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153175038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PSF Lo Figueroa</t>
+          <t>Embalse El Almendro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Torrelaguna Energía SpA</t>
+          <t>Sociedad Agricola Cunculen Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -548,12 +548,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151890153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brisas de Pencahue</t>
+          <t>PSF Lo Figueroa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA</t>
+          <t>Torrelaguna Energía SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4787</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/12/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Brisas de Pencahue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>324020</v>
+        <v>4787</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>09/12/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización Planta de Aceite de Oliva Las Doscientas</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAS DOSCIENTAS SPA</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6250</v>
+        <v>324020</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/08/2020</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147946051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tranque Las Pataguas</t>
+          <t>Regularización Planta de Aceite de Oliva Las Doscientas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Agricola BP SpA</t>
+          <t>LAS DOSCIENTAS SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>520</v>
+        <v>6250</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/03/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146004200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147946051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Las Pataguas</t>
+          <t>Tranque Las Pataguas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/03/2020</t>
+          <t>18/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146004200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tranque La Patagua</t>
+          <t>Las Pataguas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>04/03/2020</t>
+          <t>17/03/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145868467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brisas de Pencahue</t>
+          <t>Tranque La Patagua</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA</t>
+          <t>Agricola BP SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4787</v>
+        <v>520</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/01/2020</t>
+          <t>04/03/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145415256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145868467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Pencahue</t>
+          <t>Brisas de Pencahue</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hiruela Energía SpA</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>4787</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>22/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143540601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145415256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141223574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143540601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Embalse de Regulación Corta Tapihue</t>
+          <t>Parque Solar Fotovoltaico Pencahue</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mantencion y Reparacion de Maquinaria del Norte Limitada</t>
+          <t>Hiruela Energía SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>505</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/07/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140992016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141223574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Claudio Augusto Segura Ovalle</t>
+          <t>Mantencion y Reparacion de Maquinaria del Norte Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>23/07/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140704693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140992016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Regularización Planta de Aceite de Olivas, producción de hueso y orujo deshidratado</t>
+          <t>Embalse de Regulación Corta Tapihue</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Olivares de Quepu SpA</t>
+          <t>Claudio Augusto Segura Ovalle</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4031</v>
+        <v>505</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138978025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140704693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Regularización planta de aceite de olivas, producción de hueso y orujo deshidratado - Olivares de Quepu S.A.</t>
+          <t>Regularización Planta de Aceite de Olivas, producción de hueso y orujo deshidratado</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/04/2018</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138978025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Regularización Planta de Aceite de Olivas, Producción de Cuesco y Orujo Deshidratado, Olivares de Quepu S.A.</t>
+          <t>Regularización planta de aceite de olivas, producción de hueso y orujo deshidratado - Olivares de Quepu S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/04/2016</t>
+          <t>05/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Estación de Bombeo Alimentador Canal Pencahue, Región del Maule</t>
+          <t>Regularización Planta de Aceite de Olivas, Producción de Cuesco y Orujo Deshidratado, Olivares de Quepu S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Olivares de Quepu SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5543</v>
+        <v>4031</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30/03/2016</t>
+          <t>19/04/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131225000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131308091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mejoramiento de Bodega de Vinos Lourdes, Viña Concha y Toro</t>
+          <t>Estación de Bombeo Alimentador Canal Pencahue, Región del Maule</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>890</v>
+        <v>5543</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>30/03/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131095252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131225000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación Planta de Aceite de Olivas, Olivares de Quepu S.A.</t>
+          <t>Mejoramiento de Bodega de Vinos Lourdes, Viña Concha y Toro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Olivares de Quepu SpA</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4284</v>
+        <v>890</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/02/2014</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129171504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131095252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Pencahue</t>
+          <t>Modificación Planta de Aceite de Olivas, Olivares de Quepu S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pencahue</t>
+          <t>Olivares de Quepu SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2200</v>
+        <v>4284</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/06/2013</t>
+          <t>19/02/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8234706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129171504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mejoramiento integral sistema de alcantarillado y planta de tratamiento de aguas servidas de Pencahue</t>
+          <t>Mejoramiento Integral Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Pencahue</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lucy Lara Leiva</t>
+          <t>Ilustre Municipalidad de Pencahue</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/05/2013</t>
+          <t>19/06/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8234706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embalse de acumulación de agua El Cerrito</t>
+          <t>Mejoramiento integral sistema de alcantarillado y planta de tratamiento de aguas servidas de Pencahue</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>El Cerrito S.A.</t>
+          <t>Lucy Lara Leiva</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>479</v>
+        <v>2200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18/04/2013</t>
+          <t>30/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8075819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Optimización del proceso de manejo del Alperujo, Planta de Aceite de Oliva Las Doscientas S.A.</t>
+          <t>Embalse de acumulación de agua El Cerrito</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Las Doscientas S.A.</t>
+          <t>El Cerrito S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>107</v>
+        <v>479</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>18/04/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7418557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8075819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>27/09/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7323225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7418557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Drenaje Pencahue</t>
+          <t>Optimización del proceso de manejo del Alperujo, Planta de Aceite de Oliva Las Doscientas S.A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inversiones Pinochet Aguiar Limitada.</t>
+          <t>Las Doscientas S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>307</v>
+        <v>118</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/07/2012</t>
+          <t>27/09/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7323225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES, PLANTA DE ACEITE DE OLIVA LAS DOSCIENTAS S.A.</t>
+          <t>Drenaje Pencahue</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LAS DOSCIENTAS S.A.</t>
+          <t>Inversiones Pinochet Aguiar Limitada.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>307</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/05/2012</t>
+          <t>24/07/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES, PLANTA DE ACEITE DE OLIVA LAS DOSCIENTAS S.A.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>LAS DOSCIENTAS S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/05/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6874070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta Agroindustrial Deshidratadora y Procesadora de Ciruelas y Almazara</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AGRICOLA RIO CLARO DEL MAULE S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5500</v>
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Almazara Las Tizas .</t>
+          <t>Planta Agroindustrial Deshidratadora y Procesadora de Ciruelas y Almazara</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Agrícola Las Tizas Oriente S.A.</t>
+          <t>AGRICOLA RIO CLARO DEL MAULE S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5270734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliacion Servicio Agua Potable Rural de Pencahue</t>
+          <t>Almazara Las Tizas .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cooperativa Agua Potable Rural Pencahue Ltda.</t>
+          <t>Agrícola Las Tizas Oriente S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.186654</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/08/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4782949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5270734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Mejoramiento y Ampliacion Servicio Agua Potable Rural de Pencahue</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cooperativa Agua Potable Rural Pencahue Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>300</v>
+        <v>1.186654</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>20/08/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4782949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,21 +2027,21 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6300</v>
+        <v>22</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD EMBALSE MILLA (e-seia)</t>
+          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Milla S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>68</v>
+        <v>6300</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD EMBALSE MILLA (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Milla S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bodega El Oeste Ltda. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bodega El Oeste Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Planta de aceite de oliva Las Doscientas S. A. planta de aceite de oliva (e-seia)</t>
+          <t>Bodega El Oeste Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Juan Fernando Waidele Cortes</t>
+          <t>Bodega El Oeste Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>36</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/02/2008</t>
+          <t>20/03/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2682881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Planta de aceite de oliva Las Doscientas S. A. planta de aceite de oliva (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Juan Fernando Waidele Cortes</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>234</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>04/02/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2682881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DIA Embalse Estacional El Cerrito (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Inversiones El Alba S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07/05/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SISTEMA DE ACONDICIONAMIENTO DE RILES, BODEGA EL OESTE (e-seia)</t>
+          <t>DIA Embalse Estacional El Cerrito (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Vinificadora Industrial y Comercial El Oeste Limitada</t>
+          <t>Inversiones El Alba S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/03/2007</t>
+          <t>07/05/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE ACONDICIONAMIENTO DE RILES, BODEGA EL OESTE (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Vinificadora Industrial y Comercial El Oeste Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>06/03/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DIA PRC PENCAHUE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pencahue</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>DIA PRC PENCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ilustre Municipalidad de Pencahue</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bodega de Vinificación y Guarda con Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersión. (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Viña Chequen S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1807173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Bodega de Vinificación y Guarda con Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersión. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Viña Chequen S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>15/11/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1807173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sistema de Neutralización y Depuración de Residuos Industriales Líquidos Viña y Bodega Botalcura S.A. (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Viña y Bodega Botalcura S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/10/2003</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=190988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Residuos Industriales Liquidos, Bodega Pencahue (e-seia)</t>
+          <t>Sistema de Neutralización y Depuración de Residuos Industriales Líquidos Viña y Bodega Botalcura S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Viña y Bodega Botalcura S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>17/09/2003</t>
+          <t>31/10/2003</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=150956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=190988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Olivas Olivares de Quepu S.A. (e-seia)</t>
+          <t>Sistema de Tratamiento Residuos Industriales Liquidos, Bodega Pencahue (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OLIVARES DE QUEPU S.A.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>424</v>
+        <v>286</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/09/2003</t>
+          <t>17/09/2003</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=149099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=150956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Talca - Pencahue (e-seia)</t>
+          <t>Planta de Aceite de Olivas Olivares de Quepu S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>OLIVARES DE QUEPU S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>715</v>
+        <v>424</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>16/09/2003</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=149099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Minerales y Tranque de Relave Arno (segunda presentación)</t>
+          <t>Línea de Transmisión Eléctrica Talca - Pencahue (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Paicavi S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>400</v>
+        <v>715</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional 90 Viviendas Sociales Dinámicas Sin Deuda con Equipamiento Comunitario Localidad de Lo Figueroa</t>
+          <t>Planta Procesadora de Minerales y Tranque de Relave Arno (segunda presentación)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Empresa Constructora Marcelo Rivano Ltda.</t>
+          <t>Sociedad Contractual Minera Paicavi S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>19/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Minerales y Tranque de Relave Arno</t>
+          <t>Proyecto Habitacional 90 Viviendas Sociales Dinámicas Sin Deuda con Equipamiento Comunitario Localidad de Lo Figueroa</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Soc. Legal Minera Arno de los Muermos</t>
+          <t>Empresa Constructora Marcelo Rivano Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/10/2001</t>
+          <t>19/07/2002</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Compostaje Fundo Lourdes Viña Concha y Toro S.A.</t>
+          <t>Planta Procesadora de Minerales y Tranque de Relave Arno</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Soc. Legal Minera Arno de los Muermos</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>05/07/2001</t>
+          <t>24/10/2001</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,43 +3640,91 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>Planta de Compostaje Fundo Lourdes Viña Concha y Toro S.A.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Viña Concha y Toro S.A.</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>40</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>05/07/2001</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4074&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Pencahue</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Plan Regulador Intercomunal Talca</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Séptima</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región del Maule</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="F70" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>04/07/2000</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2967&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Pencahue</t>
         </is>

--- a/data/Pencahue.xlsx
+++ b/data/Pencahue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
